--- a/Bloom_affective.xlsx
+++ b/Bloom_affective.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musth\OneDrive\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\OneDrive\Desktop\Uni\ENG4702\Course_Design_For_Accreditation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B306F-8BB9-48D9-BE80-1E340C175704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42C79B-1E36-4A75-B7C6-57A5B91D4758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="859" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloom Affective UNH" sheetId="7" r:id="rId1"/>
     <sheet name="Bloom Affective Syracuse" sheetId="8" r:id="rId2"/>
+    <sheet name="Bloom Affective Waterloo" sheetId="9" r:id="rId3"/>
+    <sheet name="Bloom Affective Alberta" sheetId="10" r:id="rId4"/>
+    <sheet name="Bloom Affective Madison" sheetId="11" r:id="rId5"/>
+    <sheet name="Bloom Affective UIC" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="SourcesRange">#REF!</definedName>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="265">
   <si>
     <t>choose</t>
   </si>
@@ -651,13 +655,181 @@
   </si>
   <si>
     <t>Organisation</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>clarify</t>
+  </si>
+  <si>
+    <t>indicate</t>
+  </si>
+  <si>
+    <t>inquire</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>differentiate</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>refute</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>categorize</t>
+  </si>
+  <si>
+    <t>classify</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>formulate</t>
+  </si>
+  <si>
+    <t>generate</t>
+  </si>
+  <si>
+    <t>integrate</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>relate</t>
+  </si>
+  <si>
+    <t>behave</t>
+  </si>
+  <si>
+    <t>characterize</t>
+  </si>
+  <si>
+    <t>exemplify</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>incorporate</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>perform</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>recognize</t>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <t>examine</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t>devote</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>pursue</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>codify</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>discriminate</t>
+  </si>
+  <si>
+    <t>generalize</t>
+  </si>
+  <si>
+    <t>prioritize</t>
+  </si>
+  <si>
+    <t>reconcile</t>
+  </si>
+  <si>
+    <t>internalize</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>invite</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>discuess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -684,6 +856,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -738,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,6 +929,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,13 +1151,13 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -994,7 +1175,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1012,7 +1193,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1030,7 +1211,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -1048,7 +1229,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1066,7 +1247,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -1084,7 +1265,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -1102,7 +1283,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
@@ -1120,7 +1301,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>74</v>
       </c>
@@ -1138,7 +1319,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
@@ -1156,7 +1337,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
@@ -1174,7 +1355,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -1192,7 +1373,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
@@ -1210,7 +1391,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>94</v>
       </c>
@@ -1228,7 +1409,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>97</v>
       </c>
@@ -1246,7 +1427,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>95</v>
@@ -1262,7 +1443,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>83</v>
@@ -1276,7 +1457,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>106</v>
@@ -1290,7 +1471,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>109</v>
@@ -1302,7 +1483,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1310,7 +1491,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1330,13 +1511,13 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1535,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
@@ -1371,7 +1552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -1388,7 +1569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
@@ -1405,7 +1586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1603,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>126</v>
       </c>
@@ -1439,7 +1620,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
@@ -1456,7 +1637,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1473,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>136</v>
       </c>
@@ -1490,7 +1671,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>141</v>
       </c>
@@ -1504,7 +1685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>145</v>
       </c>
@@ -1518,7 +1699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>149</v>
       </c>
@@ -1532,7 +1713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1560,7 +1741,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1588,7 +1769,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>159</v>
       </c>
@@ -1602,7 +1783,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1797,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1811,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>166</v>
       </c>
@@ -1644,7 +1825,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1839,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>173</v>
       </c>
@@ -1686,7 +1867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>176</v>
       </c>
@@ -1700,7 +1881,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>180</v>
       </c>
@@ -1714,7 +1895,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>184</v>
       </c>
@@ -1728,7 +1909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>186</v>
       </c>
@@ -1742,7 +1923,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1937,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>193</v>
       </c>
@@ -1767,7 +1948,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>196</v>
       </c>
@@ -1778,7 +1959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
@@ -1789,7 +1970,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1800,7 +1981,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1992,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>202</v>
       </c>
@@ -1822,7 +2003,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>205</v>
       </c>
@@ -1830,19 +2011,1060 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E37" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACF1916-26B1-44E7-99BA-430F67165E6F}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9708C4-0CBC-4C70-BBEE-F667EBC31D77}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C753BDD-1427-4217-A3EE-34755007AB4F}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11D6D2B-0277-4205-87B3-D623023EE9BA}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
